--- a/Create_order/Excel Source/rate.xlsx
+++ b/Create_order/Excel Source/rate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="rate" sheetId="1" r:id="rId1"/>
@@ -2166,8 +2166,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2706,7 +2709,7 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2716,3960 +2719,4049 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>232</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>0.9226</v>
+      <c r="J2" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>231</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3">
-        <v>22.7849</v>
+      <c r="J3" s="1">
+        <v>23.3665</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>230</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4">
-        <v>0.9226</v>
+      <c r="J4" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>229</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5">
-        <v>7498.6333</v>
+      <c r="J5" s="1">
+        <v>7513.6232</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>228</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6">
-        <v>38.3486</v>
+      <c r="J6" s="1">
+        <v>39.3112</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>227</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>226</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J8">
-        <v>155.981</v>
+      <c r="J8" s="1">
+        <v>155.9064</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>225</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J9">
-        <v>24.7132</v>
+      <c r="J9" s="1">
+        <v>24.7344</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>224</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J10">
-        <v>7.7701</v>
+      <c r="J10" s="1">
+        <v>7.7623</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>223</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>222</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>221</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J13">
-        <v>512.594</v>
+      <c r="J13" s="1">
+        <v>522.4951</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>220</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J14">
-        <v>5.1439</v>
+      <c r="J14" s="1">
+        <v>5.519</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>219</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J15">
-        <v>6.9264</v>
+      <c r="J15" s="1">
+        <v>6.9194</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>218</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>217</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J17">
-        <v>864.75</v>
+      <c r="J17" s="1">
+        <v>911.67</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>216</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J18">
-        <v>0.9226</v>
+      <c r="J18" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>215</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J19">
-        <v>355.161</v>
+      <c r="J19" s="1">
+        <v>370.4134</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>214</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J20">
-        <v>107.9606</v>
+      <c r="J20" s="1">
+        <v>109.3772</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>213</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J21">
-        <v>6.9512</v>
+      <c r="J21" s="1">
+        <v>7.0402</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>212</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J22">
-        <v>0.9226</v>
+      <c r="J22" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>211</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J23">
-        <v>0.9226</v>
+      <c r="J23" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>210</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J24">
-        <v>0.9226</v>
+      <c r="J24" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>209</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J25">
-        <v>0.9226</v>
+      <c r="J25" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>208</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J26">
-        <v>0.9226</v>
+      <c r="J26" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>207</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J27">
-        <v>0.9226</v>
+      <c r="J27" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>206</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J28">
-        <v>10.5905</v>
+      <c r="J28" s="1">
+        <v>10.6561</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>205</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J29">
-        <v>0.9146</v>
+      <c r="J29" s="1">
+        <v>0.8979</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>204</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J30">
-        <v>6.8825</v>
+      <c r="J30" s="1">
+        <v>6.9698</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>203</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="J31">
-        <v>4.5883</v>
+      <c r="J31" s="1">
+        <v>4.6528</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>202</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J32">
-        <v>0.9226</v>
+      <c r="J32" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>201</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J33">
-        <v>0.9226</v>
+      <c r="J33" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>200</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J34">
-        <v>138.218</v>
+      <c r="J34" s="1">
+        <v>139.1828</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>199</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J35">
-        <v>0.9226</v>
+      <c r="J35" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>198</v>
       </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J36">
-        <v>0.9226</v>
+      <c r="J36" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>197</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J37">
-        <v>3.258</v>
+      <c r="J37" s="1">
+        <v>3.2768</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>196</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J38">
-        <v>40.1306</v>
+      <c r="J38" s="1">
+        <v>40.5245</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>195</v>
       </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J39">
-        <v>32.231</v>
+      <c r="J39" s="1">
+        <v>32.8986</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>194</v>
       </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J40">
-        <v>89.735</v>
+      <c r="J40" s="1">
+        <v>85.7274</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>193</v>
       </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J41">
-        <v>2.2686</v>
+      <c r="J41" s="1">
+        <v>2.2349</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>192</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J42">
-        <v>1.5097</v>
+      <c r="J42" s="1">
+        <v>1.5034</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>191</v>
       </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>190</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J44">
-        <v>63.3561</v>
+      <c r="J44" s="1">
+        <v>63.714</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>189</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J45">
-        <v>46.2356</v>
+      <c r="J45" s="1">
+        <v>47.0768</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>188</v>
       </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J46">
-        <v>453.8839</v>
+      <c r="J46" s="1">
+        <v>459.6923</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>187</v>
       </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J47">
-        <v>4428.2108</v>
+      <c r="J47" s="1">
+        <v>4486.2511</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>186</v>
       </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J48">
-        <v>18.4052</v>
+      <c r="J48" s="1">
+        <v>18.4395</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>185</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="G49" s="1"/>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J49">
-        <v>18.4052</v>
+      <c r="J49" s="1">
+        <v>18.4395</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>184</v>
       </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="J50">
-        <v>18.4053</v>
+      <c r="J50" s="1">
+        <v>18.4394</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>183</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J51">
-        <v>862.2056</v>
+      <c r="J51" s="1">
+        <v>865.0344</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>182</v>
       </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G52" s="1"/>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J52">
-        <v>605.1786</v>
+      <c r="J52" s="1">
+        <v>612.9231</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>181</v>
       </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J53">
-        <v>605.1786</v>
+      <c r="J53" s="1">
+        <v>612.9231</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>180</v>
       </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J54">
-        <v>605.1786</v>
+      <c r="J54" s="1">
+        <v>612.9231</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>179</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J55">
-        <v>605.1786</v>
+      <c r="J55" s="1">
+        <v>612.9231</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>178</v>
       </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="G56" s="1"/>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J56">
-        <v>605.1786</v>
+      <c r="J56" s="1">
+        <v>612.9231</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>177</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="G57" s="1"/>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J57">
-        <v>605.1786</v>
+      <c r="J57" s="1">
+        <v>612.9231</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>176</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="G58" s="1"/>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J58">
-        <v>193.3942</v>
+      <c r="J58" s="1">
+        <v>194.4693</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>175</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J59">
-        <v>8581.6714</v>
+      <c r="J59" s="1">
+        <v>8576.047</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>174</v>
       </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="J60">
-        <v>605.1786</v>
+      <c r="J60" s="1">
+        <v>612.9231</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>173</v>
       </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="J61">
-        <v>571.5995</v>
+      <c r="J61" s="1">
+        <v>570.8678</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>172</v>
       </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J62">
-        <v>9.951</v>
+      <c r="J62" s="1">
+        <v>9.9412</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>171</v>
       </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="G63" s="1"/>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="J63">
-        <v>134.6163</v>
+      <c r="J63" s="1">
+        <v>134.6882</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>170</v>
       </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J64">
-        <v>3.1202</v>
+      <c r="J64" s="1">
+        <v>3.1402</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>169</v>
       </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="G65" s="1"/>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J65">
-        <v>4.84</v>
+      <c r="J65" s="1">
+        <v>4.8657</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>168</v>
       </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="G66" s="1"/>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J66">
-        <v>509.3641</v>
+      <c r="J66" s="1">
+        <v>511.0523</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>167</v>
       </c>
-      <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="G67" s="1"/>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J67">
-        <v>47.119</v>
+      <c r="J67" s="1">
+        <v>48.0333</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>166</v>
       </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="G68" s="1"/>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J68">
-        <v>443.2005</v>
+      <c r="J68" s="1">
+        <v>466.8677</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>165</v>
       </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J69">
-        <v>10.8956</v>
+      <c r="J69" s="1">
+        <v>10.6748</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>164</v>
       </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="G70" s="1"/>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J70">
-        <v>88.1013</v>
+      <c r="J70" s="1">
+        <v>86.6156</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>163</v>
       </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="G71" s="1"/>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J71">
-        <v>12727.9749</v>
+      <c r="J71" s="1">
+        <v>12560.8054</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>162</v>
       </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J72">
-        <v>3.5001</v>
+      <c r="J72" s="1">
+        <v>3.4992</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>161</v>
       </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="J73">
-        <v>71.8735</v>
+      <c r="J73" s="1">
+        <v>70.786</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>160</v>
       </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="1">
         <v>3.64</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>159</v>
       </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="1">
         <v>3.6725</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>158</v>
       </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="1">
         <v>0.3845</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>157</v>
       </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="G77" s="1"/>
+      <c r="H77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="J77">
-        <v>250.2961</v>
+      <c r="J77" s="1">
+        <v>250.1095</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>156</v>
       </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="1">
         <v>3.75</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>155</v>
       </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J79">
-        <v>0.307</v>
+      <c r="J79" s="1">
+        <v>0.3067</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>154</v>
       </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="G80" s="1"/>
+      <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="J80">
-        <v>1311.1638</v>
+      <c r="J80" s="1">
+        <v>1309.365</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>153</v>
       </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="1">
         <v>0.709</v>
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>152</v>
       </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J82">
-        <v>3.6647</v>
+      <c r="J82" s="1">
+        <v>3.7574</v>
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>151</v>
       </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J83">
-        <v>3.6647</v>
+      <c r="J83" s="1">
+        <v>3.7574</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>150</v>
       </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="G84" s="1"/>
+      <c r="H84" s="1">
+        <v>1</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="1">
         <v>89500</v>
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>149</v>
       </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="G85" s="1"/>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J85">
-        <v>12892.1263</v>
+      <c r="J85" s="1">
+        <v>12908.2978</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>147</v>
       </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J86">
-        <v>42086.6468</v>
+      <c r="J86" s="1">
+        <v>42051.1897</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>146</v>
       </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="G87" s="1"/>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J87">
-        <v>83.1143</v>
+      <c r="J87" s="1">
+        <v>83.4706</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>145</v>
       </c>
-      <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="J88">
-        <v>132.983</v>
+      <c r="J88" s="1">
+        <v>133.553</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>144</v>
       </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="G89" s="1"/>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J89">
-        <v>117.3197</v>
+      <c r="J89" s="1">
+        <v>117.4877</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>143</v>
       </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1">
+        <v>1</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J90">
-        <v>278.1963</v>
+      <c r="J90" s="1">
+        <v>278.6533</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>142</v>
       </c>
-      <c r="B91" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="J91">
-        <v>15.4435</v>
+      <c r="J91" s="1">
+        <v>15.4401</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>141</v>
       </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="J92">
-        <v>299.9511</v>
+      <c r="J92" s="1">
+        <v>305.2913</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>140</v>
       </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="J93">
-        <v>1.3505</v>
+      <c r="J93" s="1">
+        <v>1.358</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>139</v>
       </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J94">
-        <v>2101.1661</v>
+      <c r="J94" s="1">
+        <v>2098.8088</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>138</v>
       </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="G95" s="1"/>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J95">
-        <v>4086.1771</v>
+      <c r="J95" s="1">
+        <v>4095.5347</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>137</v>
       </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J96">
-        <v>21640.8883</v>
+      <c r="J96" s="1">
+        <v>21994.3172</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>136</v>
       </c>
-      <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="G97" s="1"/>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J97">
-        <v>3412.3398</v>
+      <c r="J97" s="1">
+        <v>3388.4398</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>135</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="G98" s="1"/>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J98">
-        <v>1365.8988</v>
+      <c r="J98" s="1">
+        <v>1386.6979</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>134</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="G99" s="1"/>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J99">
-        <v>157.008</v>
+      <c r="J99" s="1">
+        <v>160.6383</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>133</v>
       </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J100">
-        <v>0.9226</v>
+      <c r="J100" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>132</v>
       </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="G101" s="1"/>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J101">
-        <v>3.7329</v>
+      <c r="J101" s="1">
+        <v>3.8241</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>131</v>
       </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>130</v>
       </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="G103" s="1"/>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J103">
-        <v>16.7007</v>
+      <c r="J103" s="1">
+        <v>18.4398</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>129</v>
       </c>
-      <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="G104" s="1"/>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J104">
-        <v>908.8498</v>
+      <c r="J104" s="1">
+        <v>950.9942</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>128</v>
       </c>
-      <c r="B105" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="G105" s="1"/>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J105">
-        <v>83.1144</v>
+      <c r="J105" s="1">
+        <v>83.4704</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>127</v>
       </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="G106" s="1"/>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J106">
-        <v>36.5129</v>
+      <c r="J106" s="1">
+        <v>36.4085</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>126</v>
       </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="G107" s="1"/>
+      <c r="H107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="J107">
-        <v>3832.4269</v>
+      <c r="J107" s="1">
+        <v>4129.8448</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>125</v>
       </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="G108" s="1"/>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J108">
-        <v>1312.5191</v>
+      <c r="J108" s="1">
+        <v>1319.4908</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>124</v>
       </c>
-      <c r="B109" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="G109" s="1"/>
+      <c r="H109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J109">
-        <v>2600.312</v>
+      <c r="J109" s="1">
+        <v>2616.8077</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>123</v>
       </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="G110" s="1"/>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J110">
-        <v>26.4275</v>
+      <c r="J110" s="1">
+        <v>25.8748</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>122</v>
       </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="G111" s="1"/>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J111">
-        <v>3816.6518</v>
+      <c r="J111" s="1">
+        <v>3698.7555</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>121</v>
       </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="G112" s="1"/>
+      <c r="H112" s="1">
+        <v>1</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J112">
-        <v>1444.8592</v>
+      <c r="J112" s="1">
+        <v>1520.1626</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>120</v>
       </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="G113" s="1"/>
+      <c r="H113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J113">
-        <v>131.92</v>
+      <c r="J113" s="1">
+        <v>128.8487</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>119</v>
       </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="G114" s="1"/>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="J114">
-        <v>14.7012</v>
+      <c r="J114" s="1">
+        <v>15.2845</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>118</v>
       </c>
-      <c r="B115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="G115" s="1"/>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="J115">
-        <v>1744.4662</v>
+      <c r="J115" s="1">
+        <v>1740.1102</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>117</v>
       </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="G116" s="1"/>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J116">
-        <v>3.9277</v>
+      <c r="J116" s="1">
+        <v>4.0295</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
+        <v>1</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J117">
-        <v>0.9226</v>
+      <c r="J117" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>115</v>
       </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J118">
-        <v>0.9226</v>
+      <c r="J118" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>114</v>
       </c>
-      <c r="B119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="G119" s="1"/>
+      <c r="H119" s="1">
+        <v>1</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="J119">
-        <v>36.6533</v>
+      <c r="J119" s="1">
+        <v>36.8277</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>113</v>
       </c>
-      <c r="B120" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="G120" s="1"/>
+      <c r="H120" s="1">
+        <v>1</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="J120">
-        <v>25483.9671</v>
+      <c r="J120" s="1">
+        <v>25469.1478</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>112</v>
       </c>
-      <c r="B121" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="G121" s="1"/>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="J121">
-        <v>58.1993</v>
+      <c r="J121" s="1">
+        <v>58.6873</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>110</v>
       </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="G122" s="1">
+        <v>1</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="J122">
-        <v>1.3674</v>
+      <c r="J122" s="1">
+        <v>1.3693</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>109</v>
       </c>
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="G123" s="1">
+        <v>1</v>
+      </c>
+      <c r="H123" s="1">
+        <v>1</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J123">
-        <v>0.9226</v>
+      <c r="J123" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>108</v>
       </c>
-      <c r="B124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="H124" s="1">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="J124">
-        <v>1.6348</v>
+      <c r="J124" s="1">
+        <v>1.6428</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>107</v>
       </c>
-      <c r="B125" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="G125" s="1"/>
+      <c r="H125" s="1">
+        <v>1</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="J125">
-        <v>10.6706</v>
+      <c r="J125" s="1">
+        <v>10.6173</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>106</v>
       </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-      <c r="I126" t="s">
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="H126" s="1">
+        <v>1</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J126">
-        <v>0.9226</v>
+      <c r="J126" s="1">
+        <v>0.9343</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>105</v>
       </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="H127" s="1">
+        <v>1</v>
+      </c>
+      <c r="I127" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J127">
-        <v>0.7856</v>
+      <c r="J127" s="1">
+        <v>0.7909</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>104</v>
       </c>
-      <c r="B128" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="G128" s="1">
+        <v>1</v>
+      </c>
+      <c r="H128" s="1">
+        <v>1</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>103</v>
       </c>
-      <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="G129" s="1">
+        <v>1</v>
+      </c>
+      <c r="H129" s="1">
+        <v>1</v>
+      </c>
+      <c r="I129" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J129">
-        <v>1.5097</v>
+      <c r="J129" s="1">
+        <v>1.5034</v>
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>100</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-      <c r="I130" t="s">
+      <c r="G130" s="1"/>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="J130">
-        <v>4.7128</v>
+      <c r="J130" s="1">
+        <v>4.7192</v>
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>97</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="G131" s="1">
+        <v>1</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="J131">
-        <v>1.3505</v>
+      <c r="J131" s="1">
+        <v>1.3579</v>
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>91</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-      <c r="I132" t="s">
+      <c r="G132" s="1"/>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="J132">
-        <v>16041.8108</v>
+      <c r="J132" s="1">
+        <v>16412.744</v>
       </c>
     </row>
   </sheetData>
